--- a/Results/2021.03.13-07.16-Van Driest.xlsx
+++ b/Results/2021.03.13-07.16-Van Driest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>L_D</t>
   </si>
@@ -47,6 +47,18 @@
   </si>
   <si>
     <t>s_l</t>
+  </si>
+  <si>
+    <t>Cp_base</t>
+  </si>
+  <si>
+    <t>P_base</t>
+  </si>
+  <si>
+    <t>D_base</t>
+  </si>
+  <si>
+    <t>S_base</t>
   </si>
 </sst>
 </file>
@@ -378,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -389,13 +401,13 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>4.004048145678475</v>
+        <v>4.004048952012076</v>
       </c>
       <c r="C1">
-        <v>3.38502577488482</v>
+        <v>3.383645344629007</v>
       </c>
       <c r="D1">
-        <v>3.625512628197741</v>
+        <v>3.624549554035144</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -403,13 +415,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3223050.450645105</v>
+        <v>3223050.483304044</v>
       </c>
       <c r="C2">
-        <v>3208231.925984339</v>
+        <v>3208196.205433025</v>
       </c>
       <c r="D2">
-        <v>3214468.889241803</v>
+        <v>3214446.834770465</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -417,13 +429,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>804947.9759936724</v>
+        <v>804947.8220500844</v>
       </c>
       <c r="C3">
-        <v>947771.7864920846</v>
+        <v>948147.8933734945</v>
       </c>
       <c r="D3">
-        <v>886624.6566736496</v>
+        <v>886854.155764509</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -431,13 +443,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.09901472925633811</v>
+        <v>0.09901473025964723</v>
       </c>
       <c r="C4">
-        <v>0.09855949213556313</v>
+        <v>0.09855839477119624</v>
       </c>
       <c r="D4">
-        <v>0.09875109671568875</v>
+        <v>0.0987504191844053</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -445,13 +457,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.02472865601359055</v>
+        <v>0.02472865128431841</v>
       </c>
       <c r="C5">
-        <v>0.02911631954675936</v>
+        <v>0.02912787385582293</v>
       </c>
       <c r="D5">
-        <v>0.02723783002371678</v>
+        <v>0.0272448804223047</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -473,13 +485,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>10422.67648553937</v>
+        <v>10422.67289148332</v>
       </c>
       <c r="C7">
-        <v>10422.67648553937</v>
+        <v>10422.67289148332</v>
       </c>
       <c r="D7">
-        <v>10422.67648553937</v>
+        <v>10422.67289148332</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -487,13 +499,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.08000000000629681</v>
+        <v>0.07999997241986209</v>
       </c>
       <c r="C8">
-        <v>0.08000000000629681</v>
+        <v>0.07999997241986209</v>
       </c>
       <c r="D8">
-        <v>0.08000000000629681</v>
+        <v>0.07999997241986209</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -536,6 +548,62 @@
       </c>
       <c r="D11">
         <v>0.4270480190802849</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>-0.04297219340437737</v>
+      </c>
+      <c r="C12">
+        <v>-0.04297219340437737</v>
+      </c>
+      <c r="D12">
+        <v>-0.04297219340437737</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>179.4863027032873</v>
+      </c>
+      <c r="C13">
+        <v>179.4863027032873</v>
+      </c>
+      <c r="D13">
+        <v>179.4863027032873</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>36824.8054614949</v>
+      </c>
+      <c r="C14">
+        <v>36824.8054614949</v>
+      </c>
+      <c r="D14">
+        <v>36824.8054614949</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>205.1677755175045</v>
+      </c>
+      <c r="C15">
+        <v>205.1677755175045</v>
+      </c>
+      <c r="D15">
+        <v>205.1677755175045</v>
       </c>
     </row>
   </sheetData>
